--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H2">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I2">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J2">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N2">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O2">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P2">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q2">
-        <v>2.144493003786889</v>
+        <v>0.06685473822233333</v>
       </c>
       <c r="R2">
-        <v>19.300437034082</v>
+        <v>0.601692644001</v>
       </c>
       <c r="S2">
-        <v>0.005115691983871409</v>
+        <v>0.0002267873313841939</v>
       </c>
       <c r="T2">
-        <v>0.005642451250177863</v>
+        <v>0.0002384740487653611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H3">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I3">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J3">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N3">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O3">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P3">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q3">
-        <v>26.78116656542089</v>
+        <v>15.68870254452967</v>
       </c>
       <c r="R3">
-        <v>241.030499088788</v>
+        <v>141.198322900767</v>
       </c>
       <c r="S3">
-        <v>0.06388652183780387</v>
+        <v>0.05321984765121283</v>
       </c>
       <c r="T3">
-        <v>0.07046487281676278</v>
+        <v>0.05596235233510476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H4">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I4">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J4">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N4">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O4">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P4">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q4">
-        <v>3.978357832736334</v>
+        <v>5.4868969940175</v>
       </c>
       <c r="R4">
-        <v>23.870146996418</v>
+        <v>32.921381964105</v>
       </c>
       <c r="S4">
-        <v>0.009490379888375613</v>
+        <v>0.01861287262415002</v>
       </c>
       <c r="T4">
-        <v>0.006978398495538228</v>
+        <v>0.01304801600319716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H5">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I5">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J5">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N5">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O5">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P5">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q5">
-        <v>36.66037873904533</v>
+        <v>27.22940210737433</v>
       </c>
       <c r="R5">
-        <v>329.943408651408</v>
+        <v>245.064618966369</v>
       </c>
       <c r="S5">
-        <v>0.08745340055194761</v>
+        <v>0.09236867278698983</v>
       </c>
       <c r="T5">
-        <v>0.09645841673665664</v>
+        <v>0.09712857964398416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H6">
         <v>14.023321</v>
       </c>
       <c r="I6">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J6">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N6">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O6">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P6">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q6">
-        <v>1.715567904883444</v>
+        <v>0.06469892865366667</v>
       </c>
       <c r="R6">
-        <v>15.440111143951</v>
+        <v>0.582290357883</v>
       </c>
       <c r="S6">
-        <v>0.004092490375721207</v>
+        <v>0.0002194743074751854</v>
       </c>
       <c r="T6">
-        <v>0.004513891279934699</v>
+        <v>0.0002307841729259355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H7">
         <v>14.023321</v>
       </c>
       <c r="I7">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J7">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N7">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O7">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P7">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q7">
-        <v>21.42460233437044</v>
+        <v>15.18280190136233</v>
       </c>
       <c r="R7">
-        <v>192.821421009334</v>
+        <v>136.645217112261</v>
       </c>
       <c r="S7">
-        <v>0.05110842806482915</v>
+        <v>0.05150371114600489</v>
       </c>
       <c r="T7">
-        <v>0.05637102756346665</v>
+        <v>0.05415778054472697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H8">
         <v>14.023321</v>
       </c>
       <c r="I8">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J8">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N8">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O8">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P8">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q8">
-        <v>3.182637108133167</v>
+        <v>5.309965554952501</v>
       </c>
       <c r="R8">
-        <v>19.095822648799</v>
+        <v>31.859793329715</v>
       </c>
       <c r="S8">
-        <v>0.007592186644068208</v>
+        <v>0.01801267868172408</v>
       </c>
       <c r="T8">
-        <v>0.005582632568766365</v>
+        <v>0.01262726739958642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H9">
         <v>14.023321</v>
       </c>
       <c r="I9">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J9">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N9">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O9">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P9">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q9">
-        <v>29.32785000208267</v>
+        <v>26.35135804986967</v>
       </c>
       <c r="R9">
-        <v>263.950650018744</v>
+        <v>237.162222448827</v>
       </c>
       <c r="S9">
-        <v>0.06996163983510344</v>
+        <v>0.0893901364269041</v>
       </c>
       <c r="T9">
-        <v>0.0771655415135712</v>
+        <v>0.09399655449580172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H10">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I10">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J10">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N10">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O10">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P10">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q10">
-        <v>2.656393511565222</v>
+        <v>0.126923312577</v>
       </c>
       <c r="R10">
-        <v>23.907541604087</v>
+        <v>1.142309813193</v>
       </c>
       <c r="S10">
-        <v>0.006336831581695699</v>
+        <v>0.0004305543648088657</v>
       </c>
       <c r="T10">
-        <v>0.006989330748026565</v>
+        <v>0.0004527415264463252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H11">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I11">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J11">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N11">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O11">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P11">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q11">
-        <v>33.17395625488422</v>
+        <v>29.784906050559</v>
       </c>
       <c r="R11">
-        <v>298.565606293958</v>
+        <v>268.064154455031</v>
       </c>
       <c r="S11">
-        <v>0.07913653333759112</v>
+        <v>0.1010375560258899</v>
       </c>
       <c r="T11">
-        <v>0.08728516745598051</v>
+        <v>0.1062441844338854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H12">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I12">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J12">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N12">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O12">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P12">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q12">
-        <v>4.928010450443834</v>
+        <v>10.4168404628775</v>
       </c>
       <c r="R12">
-        <v>29.568062702663</v>
+        <v>62.50104277726501</v>
       </c>
       <c r="S12">
-        <v>0.01175577794530093</v>
+        <v>0.0353364251038485</v>
       </c>
       <c r="T12">
-        <v>0.008644174847821713</v>
+        <v>0.02477157876493276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H13">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I13">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J13">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N13">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O13">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P13">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q13">
-        <v>45.41138257012533</v>
+        <v>51.694853750913</v>
       </c>
       <c r="R13">
-        <v>408.702443131128</v>
+        <v>465.2536837582171</v>
       </c>
       <c r="S13">
-        <v>0.1083289362009008</v>
+        <v>0.1753613616656021</v>
       </c>
       <c r="T13">
-        <v>0.119483491856881</v>
+        <v>0.1843980157893315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H14">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I14">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J14">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N14">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O14">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P14">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q14">
-        <v>2.936212955335</v>
+        <v>0.0142905349185</v>
       </c>
       <c r="R14">
-        <v>17.61727773201</v>
+        <v>0.08574320951100001</v>
       </c>
       <c r="S14">
-        <v>0.007004341376736591</v>
+        <v>4.847692720658357E-05</v>
       </c>
       <c r="T14">
-        <v>0.005150382376739715</v>
+        <v>3.398334769436006E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H15">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I15">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J15">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N15">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O15">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P15">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q15">
-        <v>36.66843775639001</v>
+        <v>3.3535386944895</v>
       </c>
       <c r="R15">
-        <v>220.01062653834</v>
+        <v>20.121232166937</v>
       </c>
       <c r="S15">
-        <v>0.08747262535256725</v>
+        <v>0.01137600881313216</v>
       </c>
       <c r="T15">
-        <v>0.06431974740113533</v>
+        <v>0.007974821944124206</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H16">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I16">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J16">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N16">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O16">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P16">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q16">
-        <v>5.447117705122501</v>
+        <v>1.17285169566375</v>
       </c>
       <c r="R16">
-        <v>21.78847082049001</v>
+        <v>4.691406782655</v>
       </c>
       <c r="S16">
-        <v>0.01299410925104067</v>
+        <v>0.003978594685158057</v>
       </c>
       <c r="T16">
-        <v>0.006369823864788212</v>
+        <v>0.001859385819353902</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H17">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I17">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J17">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N17">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O17">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P17">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q17">
-        <v>50.19493130124</v>
+        <v>5.8204209899265</v>
       </c>
       <c r="R17">
-        <v>301.1695878074401</v>
+        <v>34.922525939559</v>
       </c>
       <c r="S17">
-        <v>0.1197401004504502</v>
+        <v>0.0197442661348575</v>
       </c>
       <c r="T17">
-        <v>0.0880464371992636</v>
+        <v>0.01384114669998549</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H18">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I18">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J18">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N18">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O18">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P18">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q18">
-        <v>3.47016943844211</v>
+        <v>0.1338217823186667</v>
       </c>
       <c r="R18">
-        <v>31.231524945979</v>
+        <v>1.204396040868</v>
       </c>
       <c r="S18">
-        <v>0.00827809554405896</v>
+        <v>0.0004539556312702541</v>
       </c>
       <c r="T18">
-        <v>0.009130485318296943</v>
+        <v>0.0004773486979546421</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H19">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I19">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J19">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N19">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O19">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P19">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q19">
-        <v>43.33667005536512</v>
+        <v>31.40375974241733</v>
       </c>
       <c r="R19">
-        <v>390.030030498286</v>
+        <v>282.6338376817559</v>
       </c>
       <c r="S19">
-        <v>0.1033797057012655</v>
+        <v>0.1065290966173293</v>
       </c>
       <c r="T19">
-        <v>0.1140246425148703</v>
+        <v>0.112018712979227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H20">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I20">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J20">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N20">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O20">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P20">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q20">
-        <v>6.437687482295168</v>
+        <v>10.98301114719</v>
       </c>
       <c r="R20">
-        <v>38.626124893771</v>
+        <v>65.89806688314</v>
       </c>
       <c r="S20">
-        <v>0.01535711526672786</v>
+        <v>0.0372570120662293</v>
       </c>
       <c r="T20">
-        <v>0.01129228453798848</v>
+        <v>0.0261179507047569</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H21">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I21">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J21">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N21">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O21">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P21">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q21">
-        <v>59.32298481613067</v>
+        <v>54.50454550225467</v>
       </c>
       <c r="R21">
-        <v>533.906863345176</v>
+        <v>490.540909520292</v>
       </c>
       <c r="S21">
-        <v>0.141515088809944</v>
+        <v>0.1848925110088224</v>
       </c>
       <c r="T21">
-        <v>0.1560867996533332</v>
+        <v>0.1944203206482151</v>
       </c>
     </row>
   </sheetData>
